--- a/raw/Old/Lake_AVSSA_2018.xlsx
+++ b/raw/Old/Lake_AVSSA_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstern\Documents\GitHub\effective_property_tax\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/abahls_cmap_illinois_gov/Documents/Documents/github_repos/effective_property_tax/raw/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DE5579-1890-4150-BB37-E5CE672C615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{78DE5579-1890-4150-BB37-E5CE672C615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2891506A-1534-443B-B054-88DF1E50F006}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3461D0A7-B40F-42F3-8992-7643D8C09062}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="23040" windowHeight="11595" xr2:uid="{3461D0A7-B40F-42F3-8992-7643D8C09062}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,12 +391,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -712,25 +713,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C83C55B-B138-4CEC-B8BC-0C55ECB03475}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -756,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -782,8 +784,9 @@
         <f>ROUND(E2*G2/100,2)</f>
         <v>5916.17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -810,7 +813,7 @@
         <v>287.14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -833,11 +836,11 @@
         <v>14729603</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f>ROUND(E4*G4/100,2)</f>
         <v>30000.080000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -864,7 +867,7 @@
         <v>4013.11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -891,7 +894,7 @@
         <v>369.74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -918,7 +921,7 @@
         <v>139.69999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -945,7 +948,7 @@
         <v>94.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -972,7 +975,7 @@
         <v>234.21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>45148.99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>220824.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>3600.83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>426.59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>30793.65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>2324911.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>26209.51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>498132.06</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>335782.21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>243877.19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>106542.39999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>128907.3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>282598.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>27876.11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>36534.870000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>2403.3200000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>12000.03</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>1438.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>266870.76</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>8264.2000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>713.43</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>259034.76</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>1097.33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>267187.94</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>25196.87</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>89098.83</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>901.19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>39579.39</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>420.87</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>170187.04</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>271940.44</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>1616.22</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>21140.080000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>3927.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>1760.12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>10105.06</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>3139.54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>8810.51</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>4000.02</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>29000.03</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>3500.01</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>4096.07</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>2200.0100000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>66500.13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>11100.04</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>1000.03</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>6000.04</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>14879.32</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>13608.76</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>78986.070000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>122279.05</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>7202.72</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>864.79</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>6524.32</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>109380.15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2018</v>
       </c>
